--- a/biology/Zoologie/Garrulaxe_de_Yersin/Garrulaxe_de_Yersin.xlsx
+++ b/biology/Zoologie/Garrulaxe_de_Yersin/Garrulaxe_de_Yersin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trochalopteron yersini
 Le Garrulaxe de Yersin (Trochalopteron yersini) est une espèce d'oiseaux de la famille des Leiothrichidae. Cet oiseau est endémique du Lang Bian, une montagne du Viêt Nam.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Trochalopteron yersini a été décrite en 1919 par Herbert Christopher Robinson (d) (1874-1929) et Cecil Boden Kloss (1877-1949)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Trochalopteron yersini a été décrite en 1919 par Herbert Christopher Robinson (d) (1874-1929) et Cecil Boden Kloss (1877-1949),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les types mâle et femelle de cette espèce mesurent respectivement 278 mm et 268 mm de longueur totale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les types mâle et femelle de cette espèce mesurent respectivement 278 mm et 268 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, yersini, ainsi que son nom vernaculaire lui ont été donnés en l'honneur du médecin et explorateur franco-suisse Alexandre Yersin (1863-1943)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, yersini, ainsi que son nom vernaculaire lui ont été donnés en l'honneur du médecin et explorateur franco-suisse Alexandre Yersin (1863-1943).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Herbert C. Robinson et C. Boden Kloss, « On Birds from South Annam and Cochin China. Part II. Pycnonotidæ -Dicæidæ », Ibis, Wiley-Blackwell, vol. 1, no 4,‎ octobre 1919, p. 565-625 (ISSN 1474-919X et 0019-1019, lire en ligne)</t>
         </is>
